--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_136.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_136.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,133 +488,144 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.05499181669394435</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(16.04, 22.4)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:08.080000', '0:00:24.940000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(1.54, 6.88)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(47.58, 50.04)]</t>
+          <t>[('0:00:08.340000', '0:00:16.500000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:20.080000', '0:00:23.200000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(68.98, 87.2)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(121.74, 123.78)]</t>
+          <t>[('0:01:58.780000', '0:02:06.080000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:52.140000', '0:01:57.460000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -618,587 +634,542 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3541666666666666</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(10.88, 22.2)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(2.36, 7.56)]</t>
+          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:54.180000', '0:01:01.460000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52)]</t>
+          <t>[('0:00:00.400000', '0:00:09.040000'), ('0:00:55.180000', '0:01:02.060000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:03.240000', '0:01:04.620000'), ('0:01:01.600000', '0:01:03.840000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(105.28, 122.26)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(11.94, 17.6)]</t>
+          <t>[('0:00:17.320000', '0:01:02.460000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:16.320000', '0:01:01.580000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(1.54, 6.88)]</t>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:02:00.220000', '0:02:01.920000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3676470588235294</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46)]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[('0:00:57.480000', '0:01:08.700000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:19.435000', '0:00:34.866000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>isophonics_224</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1120923913043478</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
+          <t>[['E:7', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(28.02, 30.1)]</t>
+          <t>[['C:7', 'F:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(41.32, 46.64)]</t>
+          <t>[('0:00:55.002834', '0:00:59.124376')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:40.500000', '0:00:42.740000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(10.56, 16.4)]</t>
+          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(97.72, 114.06)]</t>
+          <t>[('0:00:29.500000', '0:00:31.640000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:00:35.220000', '0:00:40')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02)]</t>
+          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:00:00.300000', '0:00:04.800000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>[('0:00:14.520000', '0:00:28.300000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(7.14, 30.18)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(44.82, 60.84)]</t>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07307692307692308</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(32.920657, 39.410634)]</t>
+          <t>[['D:7', 'G:min', 'C:min', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(16.92, 23.9)]</t>
+          <t>[('0:00:23.140000', '0:00:32.760000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+          <t>[('0:00:51.280000', '0:01:02.780000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(107.4, 126.86)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(13.08, 19.46)]</t>
+          <t>[('0:01:15.240000', '0:01:22.340000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:16.740000', '0:01:23.980000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_54</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_123</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(40.82, 43.62)]</t>
+          <t>[['F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[('0:00:09.240000', '0:01:48.600000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(37.54, 45.38)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(103.42, 115.04)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:05.840000', '0:01:44.720000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
